--- a/pred_ohlcv/54_21/2019-10-16 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 STRAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>54025.73127102002</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -574,7 +574,7 @@
         <v>59075.03620678002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>59075.03620678002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>59075.03620678002</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>59838.93307935003</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -912,7 +912,7 @@
         <v>57924.88311303003</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>57924.88311303003</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>58942.94221303003</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>58942.94221303003</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>59295.56166563003</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>61229.94206563004</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>61670.38579186003</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>60981.67429186004</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>60991.67429186004</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>56717.74919186004</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>53026.72006010004</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>53026.72006010004</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>51529.39186010003</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-8766.203248519954</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>17881.94855076004</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-16 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 STRAT ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>59075.03620678002</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>59075.03620678002</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>59075.03620678002</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>59838.93307935003</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>61918.60426563003</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>61229.94206563004</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>61695.38579186003</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>61670.38579186003</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>60981.67429186004</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>60991.67429186004</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>56717.74919186004</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>53026.72006010004</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-8803.893148519954</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-993.0197492399543</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>17881.94855076004</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
